--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfarris\OneDrive\Documents\GitHub\CustomMonitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfarris\OneDrive\Documents\GitHub-MITKY\RMMCustomMonitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C219A1-95F6-4037-9E13-90BBAF7347BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="750" windowWidth="25305" windowHeight="14340" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId1"/>
+    <sheet name="Events" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -144,6 +145,35 @@
   </si>
   <si>
     <t>No shadow copies found on host server.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Creating new events: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000 block for host server events.</t>
+    </r>
+  </si>
+  <si>
+    <t>SCRIPT CREATED</t>
+  </si>
+  <si>
+    <t>MONITOR CREATED</t>
   </si>
 </sst>
 </file>
@@ -174,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +214,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -253,13 +295,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +322,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -597,152 +648,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0723D6-14DA-4B0D-93E5-A1F679A4298E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="E1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1000</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1012</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1009</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1019</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1010</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1021</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1022</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>1011</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>1012</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1023</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1019</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -750,225 +867,183 @@
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>1022</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1026</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1027</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>1023</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1039</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1050</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>1025</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>1051</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>1026</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>1027</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>1028</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1052</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>1039</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>1054</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>1051</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>1061</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>1053</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
+      <c r="D23" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>1059</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>1061</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>1069</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfarris\OneDrive\Documents\GitHub-MITKY\RMMCustomMonitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub-MITKY/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DBA4BE-625E-4269-936E-94AF9A9111D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="Events" sheetId="1" r:id="rId2"/>
+    <sheet name="Host Monitoring Events" sheetId="1" r:id="rId2"/>
+    <sheet name="VM Monitoring Events" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -147,40 +148,47 @@
     <t>No shadow copies found on host server.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Creating new events: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1000 block for host server events.</t>
-    </r>
-  </si>
-  <si>
     <t>SCRIPT CREATED</t>
   </si>
   <si>
     <t>MONITOR CREATED</t>
+  </si>
+  <si>
+    <t>Use XXX9 for optimal results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use XXX1 for critical events. </t>
+  </si>
+  <si>
+    <t>Group events sequentially:</t>
+  </si>
+  <si>
+    <t>Use XXX0 to indicate that the setting being checked is not configured.</t>
+  </si>
+  <si>
+    <t>HOST AND PHYSICAL SERVER MONITORING EVENTS</t>
+  </si>
+  <si>
+    <t>VM SERVER MONITORING EVENTS</t>
+  </si>
+  <si>
+    <t>Use 1000 block for host or physical server monitoring events.</t>
+  </si>
+  <si>
+    <t>Use 3000 block for VM monitoring events.</t>
+  </si>
+  <si>
+    <t>CREATING NEW EVENTS</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS FOR CREATING NEW SCRIPTS AND EVENTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +211,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +250,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,28 +268,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -290,12 +296,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -316,12 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,6 +361,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -649,203 +717,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0723D6-14DA-4B0D-93E5-A1F679A4298E}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="8" t="s">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I2" s="32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H2" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1000</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1001</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1009</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1010</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1011</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1012</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>1019</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>1021</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1022</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -854,54 +975,54 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -910,142 +1031,368 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>1039</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>1050</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>1051</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>1052</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>1053</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>1054</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>1059</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>1061</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>1069</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub-MITKY/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DBA4BE-625E-4269-936E-94AF9A9111D8}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE17423F-3C94-439B-88C0-F9A7E0FC0D2F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Windows Server Backup completed successfully within the last 24 hours.</t>
   </si>
   <si>
-    <t>Backup revisions could not be checked because the most recent backup was not successful.</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>There are less than four backup revisions present. There are less than four revisions scheduled. Removing extra files from the backup drive may free enough space for more revisions.</t>
   </si>
   <si>
-    <t>No external backup drive was found.</t>
-  </si>
-  <si>
     <t>External backups are scheduled, but the external backup drive was not found!</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>SOURCES</t>
   </si>
   <si>
-    <t>Scheduled Tasks, CW RMM, MITKY</t>
-  </si>
-  <si>
     <t>Shadow copies found on host server.</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>Use XXX9 for optimal results.</t>
   </si>
   <si>
-    <t xml:space="preserve">Use XXX1 for critical events. </t>
-  </si>
-  <si>
     <t>Group events sequentially:</t>
   </si>
   <si>
@@ -182,6 +170,24 @@
   </si>
   <si>
     <t>INSTRUCTIONS FOR CREATING NEW SCRIPTS AND EVENTS</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Backup revisions could not be checked because of recent backup failures.</t>
+  </si>
+  <si>
+    <t>No external backup drive was found. External backups are not scheduled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use XXX1 for critical events, or the worst-case result. </t>
+  </si>
+  <si>
+    <t>Use XXX2+ for other errors or warnings.</t>
+  </si>
+  <si>
+    <t>Scheduled Tasks, RMM, MITKY</t>
   </si>
 </sst>
 </file>
@@ -257,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,28 +281,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -305,30 +289,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -343,12 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,45 +321,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,79 +669,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0723D6-14DA-4B0D-93E5-A1F679A4298E}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="28"/>
+    <col min="8" max="8" width="17" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="A9" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -797,6 +756,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -805,7 +765,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,38 +774,38 @@
     <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>37</v>
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,20 +819,23 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>1001</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -889,8 +852,8 @@
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -947,21 +910,21 @@
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>1021</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,10 +1022,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1075,21 +1038,21 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>1051</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>25</v>
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,21 +1108,26 @@
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>1061</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>34</v>
+      <c r="D24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,8 +1141,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1193,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1209,185 +1179,165 @@
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-    </row>
-    <row r="28" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub-MITKY/RMMCustomMonitors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE17423F-3C94-439B-88C0-F9A7E0FC0D2F}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2FAA4F3-9F4B-44E6-A834-E49549BA1C28}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="Host Monitoring Events" sheetId="1" r:id="rId2"/>
     <sheet name="VM Monitoring Events" sheetId="3" r:id="rId3"/>
+    <sheet name="Maintenance Task Events" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -294,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -338,20 +339,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,83 +666,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0723D6-14DA-4B0D-93E5-A1F679A4298E}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="28"/>
-    <col min="8" max="8" width="17" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -765,7 +758,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,16 +767,16 @@
     <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
     <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -821,7 +814,7 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -852,8 +845,8 @@
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -910,8 +903,8 @@
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1024,8 +1017,8 @@
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1070,16 +1063,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="8">
         <v>1053</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1110,8 +1103,8 @@
       <c r="D23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -1126,7 +1119,7 @@
       <c r="D24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1143,8 +1136,8 @@
       <c r="D25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1180,11 +1173,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -1346,4 +1339,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2FAA4F3-9F4B-44E6-A834-E49549BA1C28}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF76BB6F-607B-4D09-8588-6B42CDA5E30B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>The backup drive was not found!</t>
   </si>
   <si>
-    <t>No Hyper-V VMs were detected.</t>
-  </si>
-  <si>
     <t>There are at least four backup revisions present.</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Scheduled Tasks, RMM, MITKY</t>
+  </si>
+  <si>
+    <t>No Virtual Machines were detected or the Get-VM cmdlet failed! Check if Hyper-V is enabled for this server or if VMs should be present.</t>
   </si>
 </sst>
 </file>
@@ -368,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -694,54 +694,54 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -795,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -1117,10 +1117,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -1174,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1196,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF76BB6F-607B-4D09-8588-6B42CDA5E30B}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF3D241B-9ED7-4E29-8FFE-DE74D2DA615D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -122,15 +122,6 @@
     <t>At least one recent backup revision is present on the external drive.</t>
   </si>
   <si>
-    <t>EVENT LOG NAME</t>
-  </si>
-  <si>
-    <t>MITKY</t>
-  </si>
-  <si>
-    <t>SOURCES</t>
-  </si>
-  <si>
     <t>Shadow copies found on host server.</t>
   </si>
   <si>
@@ -143,30 +134,12 @@
     <t>MONITOR CREATED</t>
   </si>
   <si>
-    <t>Use XXX9 for optimal results.</t>
-  </si>
-  <si>
-    <t>Group events sequentially:</t>
-  </si>
-  <si>
-    <t>Use XXX0 to indicate that the setting being checked is not configured.</t>
-  </si>
-  <si>
     <t>HOST AND PHYSICAL SERVER MONITORING EVENTS</t>
   </si>
   <si>
     <t>VM SERVER MONITORING EVENTS</t>
   </si>
   <si>
-    <t>Use 1000 block for host or physical server monitoring events.</t>
-  </si>
-  <si>
-    <t>Use 3000 block for VM monitoring events.</t>
-  </si>
-  <si>
-    <t>CREATING NEW EVENTS</t>
-  </si>
-  <si>
     <t>INSTRUCTIONS FOR CREATING NEW SCRIPTS AND EVENTS</t>
   </si>
   <si>
@@ -179,23 +152,35 @@
     <t>No external backup drive was found. External backups are not scheduled.</t>
   </si>
   <si>
-    <t xml:space="preserve">Use XXX1 for critical events, or the worst-case result. </t>
-  </si>
-  <si>
-    <t>Use XXX2+ for other errors or warnings.</t>
-  </si>
-  <si>
-    <t>Scheduled Tasks, RMM, MITKY</t>
-  </si>
-  <si>
     <t>No Virtual Machines were detected or the Get-VM cmdlet failed! Check if Hyper-V is enabled for this server or if VMs should be present.</t>
+  </si>
+  <si>
+    <t>MAINTENANCE TASK EVENTS</t>
+  </si>
+  <si>
+    <t>TASK CREATED</t>
+  </si>
+  <si>
+    <t>No backup revisions were found! Check that Windows Server Backup is configured and the backup drive is healthy.</t>
+  </si>
+  <si>
+    <t>The last Windows Server Backup was not successful! No revisions were changed.</t>
+  </si>
+  <si>
+    <t>The last Windows Server Backup revision could not be renamed! Check that the last backup has completed or if another process has the folder or files open.</t>
+  </si>
+  <si>
+    <t>Not enough drive space for the scheduled number of revisions. The oldest revision was deleted.</t>
+  </si>
+  <si>
+    <t>Backup revisions were successfully rotated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +217,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +251,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -349,6 +352,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -365,6 +384,1125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5467350" cy="4352925"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DB37B7-5C19-4D67-EEF1-71442FF4A882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="285750"/>
+          <a:ext cx="5467350" cy="4352925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATING NEW EVENTS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ALL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> events are written to the custom log MITKY. Use the appropriate sources:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scheduled Tasks</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Use this for scheduled Monitors and Maintenance.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RMM: This should be used for script and task deployment, or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> other one-time tasks.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MITKY: This source is available</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> because it is the name of the Event Log and currently has no intended purpose. Do not use this source.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use 1000 block for host or physical server monitoring events.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use 3000 block for VM monitoring events.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use 8000 block for Maintenance tasks.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Group events sequentially:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX0 to indicate that the setting being checked is not configured.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX1 for critical events, or the worst-case result. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX2+ for other errors or warnings.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX9 for optimal results.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>When</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> writing the script, confirm that the event log message matches what is in the sheet. If more information is needed, add the tag </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[MORE INFO] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in this sheet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The EntryType will be Critical, Error, Warning, or Information.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4257674" cy="4371976"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D16AF0-3E58-2A38-9446-A5E9B645E8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105526" y="266700"/>
+          <a:ext cx="4257674" cy="4371976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>POWERSHELL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> TEMPLATE FOR WRITING EVENTS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>Use this template for writing events in PowerShell.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4029075" cy="2505366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08093569-F45B-B6B3-699B-5394C7A4A1CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="838199"/>
+          <a:ext cx="4029075" cy="2505366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Aptos Mono" panose="020B0009020202020204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Powershell:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If (&lt;Event Trigger&gt;) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    $params = @{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      LogName = "MITKY"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      Source = ""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      EntryType = ""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      EventId = </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      Message = ""</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    Write-EventLog @params</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    exit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Mono" panose="020F0502020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,22 +1802,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0723D6-14DA-4B0D-93E5-A1F679A4298E}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -693,56 +1830,16 @@
       <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -750,6 +1847,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -757,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +1871,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -795,10 +1893,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,10 +1910,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,10 +2215,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -1174,7 +2272,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1196,10 +2294,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1343,12 +2441,129 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>8100</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>8101</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>8102</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>8109</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF3D241B-9ED7-4E29-8FFE-DE74D2DA615D}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C777CCD1-05D8-442D-8DF0-1736B96CDA89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Backup revisions were successfully rotated.</t>
+  </si>
+  <si>
+    <t>Failed to rotate divisions! Check if any revisions are open in another process.</t>
   </si>
 </sst>
 </file>
@@ -346,15 +349,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,6 +360,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1815,19 +1818,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1839,7 +1842,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" s="31"/>
+      <c r="J29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1870,11 +1873,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2271,11 +2274,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2441,10 +2444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,33 +2461,33 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2501,7 +2504,9 @@
       <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2532,31 +2537,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>8103</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>8104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>8109</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
     </row>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C777CCD1-05D8-442D-8DF0-1736B96CDA89}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946702BB-B71F-4FA8-9761-8F11E6EE5614}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Failed to rotate divisions! Check if any revisions are open in another process.</t>
+  </si>
+  <si>
+    <t>There were less than four backup revisions. An additional revision was scheduled.</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -359,9 +362,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,6 +369,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,6 +730,41 @@
             </a:rPr>
             <a:t>Use XXX9 for optimal results.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use subsequent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> numbers for additional information.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -1818,19 +1859,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1873,11 +1914,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2274,11 +2315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2444,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,11 +2503,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2565,18 +2606,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
         <v>8109</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="32" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>8110</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946702BB-B71F-4FA8-9761-8F11E6EE5614}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B04DB6-7066-493F-8F5E-128BA610CCA0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>There were less than four backup revisions. An additional revision was scheduled.</t>
+  </si>
+  <si>
+    <t>Maintenance Tasks</t>
+  </si>
+  <si>
+    <t>(DO NOT USE) Deleting shadow copies critical event.</t>
+  </si>
+  <si>
+    <t>Shadow copies were found on at least one drive, but they could not be deleted!</t>
+  </si>
+  <si>
+    <t>All shadow copies were deleted or no shadow copies were found.</t>
   </si>
 </sst>
 </file>
@@ -304,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -362,6 +374,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,10 +389,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,7 +530,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Use this for scheduled Monitors and Maintenance.</a:t>
+            <a:t>: Use this for scheduled Monitors.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Maintenance Tasks: Use this for scheduled Maintenance.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1859,19 +1888,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1899,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,11 +1943,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2315,11 +2344,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2485,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,11 +2532,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -2537,7 +2566,7 @@
         <v>8100</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -2555,7 +2584,7 @@
         <v>8101</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
@@ -2569,7 +2598,7 @@
         <v>8102</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -2583,7 +2612,7 @@
         <v>8103</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
@@ -2597,7 +2626,7 @@
         <v>8104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -2606,32 +2635,74 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>8109</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+    <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>8110</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="30" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8130</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8131</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>8139</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B04DB6-7066-493F-8F5E-128BA610CCA0}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E06FE4B5-02B5-4DD4-B01E-F55C4875218D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="Host Monitoring Events" sheetId="1" r:id="rId2"/>
-    <sheet name="VM Monitoring Events" sheetId="3" r:id="rId3"/>
-    <sheet name="Maintenance Task Events" sheetId="4" r:id="rId4"/>
+    <sheet name="Deployment Events" sheetId="6" r:id="rId2"/>
+    <sheet name="Host Monitoring Events" sheetId="1" r:id="rId3"/>
+    <sheet name="VM Monitoring Events" sheetId="3" r:id="rId4"/>
+    <sheet name="Maintenance Task Events" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -192,13 +193,25 @@
   </si>
   <si>
     <t>All shadow copies were deleted or no shadow copies were found.</t>
+  </si>
+  <si>
+    <t>SCRIPT AND TASK DEPLOYMENT EVENTS</t>
+  </si>
+  <si>
+    <t>RMM</t>
+  </si>
+  <si>
+    <t>Updating or creating task $newTaskName failed!</t>
+  </si>
+  <si>
+    <t>Task $newTaskName was created or updated successfully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +254,28 @@
       <name val="Aptos Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +317,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -312,37 +356,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,7 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,6 +406,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,11 +418,61 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -609,6 +688,17 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Use 100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> block for script and task deployment with source "RMM".</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
         <a:p>
@@ -1887,32 +1977,32 @@
     <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="24"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" s="28"/>
+      <c r="J29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1925,396 +2015,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE32089-61F4-4820-AC63-23C684788486}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16" style="29" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>102</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1009</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>109</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1010</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1011</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1012</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>1019</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>1021</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1022</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>1023</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>1025</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>1026</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1027</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>1028</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>1039</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1050</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>1051</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>1052</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>1053</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>1054</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>1059</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>1061</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>1069</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
+      <c r="F4" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2326,182 +2109,397 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16" style="8" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>1009</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>1010</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1011</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <v>1019</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>1021</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1022</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1023</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1025</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1026</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1027</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1028</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
+        <v>1039</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>1050</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="42">
+        <v>1051</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1052</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="42">
+        <v>1053</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1054</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
+        <v>1059</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
+        <v>1061</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
+        <v>1069</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2513,6 +2511,193 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2522,186 +2707,186 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>8100</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>8101</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>8102</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>8103</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>8104</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>8109</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+    <row r="9" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>8110</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8130</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>8131</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+    <row r="12" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>8139</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="20" t="s">
         <v>50</v>
       </c>
     </row>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E06FE4B5-02B5-4DD4-B01E-F55C4875218D}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A39CD81A-E59C-492B-AB64-732B44A403B2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -123,12 +123,6 @@
     <t>At least one recent backup revision is present on the external drive.</t>
   </si>
   <si>
-    <t>Shadow copies found on host server.</t>
-  </si>
-  <si>
-    <t>No shadow copies found on host server.</t>
-  </si>
-  <si>
     <t>SCRIPT CREATED</t>
   </si>
   <si>
@@ -205,6 +199,15 @@
   </si>
   <si>
     <t>Task $newTaskName was created or updated successfully.</t>
+  </si>
+  <si>
+    <t>Shadow copies were found on host server and could not be cleared!</t>
+  </si>
+  <si>
+    <t>Shadow copies were found on host server and successfully cleared.</t>
+  </si>
+  <si>
+    <t>No shadow copies were found on host server.</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,27 +412,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,14 +430,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,12 +447,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1978,19 +1981,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="A1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2018,86 +2021,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE32089-61F4-4820-AC63-23C684788486}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="16" style="29" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>102</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>102</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="E3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>109</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
-        <v>109</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="33"/>
+      <c r="E4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2110,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,99 +2124,99 @@
     <col min="2" max="2" width="33.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="16" style="8" customWidth="1"/>
     <col min="4" max="4" width="166.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>30</v>
+      <c r="E2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="32">
         <v>1000</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>37</v>
+      <c r="D3" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="34">
         <v>1001</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="36">
         <v>1009</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="32">
         <v>1010</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2247,32 +2249,32 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="36">
         <v>1019</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="38">
         <v>1021</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2287,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,46 +2363,46 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="36">
         <v>1039</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="32">
         <v>1050</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>36</v>
+      <c r="D18" s="33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="34">
         <v>1051</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="35" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2419,16 +2421,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="42">
+      <c r="A21" s="34">
         <v>1053</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2447,59 +2449,75 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
+      <c r="A23" s="36">
         <v>1059</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
+      <c r="A24" s="38">
         <v>1061</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>27</v>
+      <c r="D24" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1068</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="36">
         <v>1069</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2529,11 +2547,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2552,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2717,11 +2735,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -2740,10 +2758,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,16 +2769,16 @@
         <v>8100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2769,13 +2787,13 @@
         <v>8101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2783,13 +2801,13 @@
         <v>8102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2797,13 +2815,13 @@
         <v>8103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,13 +2829,13 @@
         <v>8104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2825,13 +2843,13 @@
         <v>8109</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2839,13 +2857,13 @@
         <v>8110</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2853,13 +2871,13 @@
         <v>8130</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2867,13 +2885,13 @@
         <v>8131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,13 +2899,13 @@
         <v>8139</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A39CD81A-E59C-492B-AB64-732B44A403B2}"/>
+  <xr:revisionPtr revIDLastSave="520" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B645D3-7041-4AE1-95E3-3007B171A466}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="Deployment Events" sheetId="6" r:id="rId2"/>
     <sheet name="Host Monitoring Events" sheetId="1" r:id="rId3"/>
-    <sheet name="VM Monitoring Events" sheetId="3" r:id="rId4"/>
-    <sheet name="Maintenance Task Events" sheetId="4" r:id="rId5"/>
+    <sheet name="WSB Events" sheetId="9" r:id="rId4"/>
+    <sheet name="VM Monitoring Events" sheetId="3" r:id="rId5"/>
+    <sheet name="Maintenance Task Events" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -111,15 +112,9 @@
     <t>External backups are scheduled, but the external backup drive was not found!</t>
   </si>
   <si>
-    <t>Windows Server Backup goes directly to the external backup drive. Consider installing an additional drive.</t>
-  </si>
-  <si>
     <t>External backups are scheduled, but no revisions are present.</t>
   </si>
   <si>
-    <t>External backups are scheduled, but the latest revision on the drive is out of date.</t>
-  </si>
-  <si>
     <t>At least one recent backup revision is present on the external drive.</t>
   </si>
   <si>
@@ -144,9 +139,6 @@
     <t>Backup revisions could not be checked because of recent backup failures.</t>
   </si>
   <si>
-    <t>No external backup drive was found. External backups are not scheduled.</t>
-  </si>
-  <si>
     <t>No Virtual Machines were detected or the Get-VM cmdlet failed! Check if Hyper-V is enabled for this server or if VMs should be present.</t>
   </si>
   <si>
@@ -177,9 +169,6 @@
     <t>There were less than four backup revisions. An additional revision was scheduled.</t>
   </si>
   <si>
-    <t>Maintenance Tasks</t>
-  </si>
-  <si>
     <t>(DO NOT USE) Deleting shadow copies critical event.</t>
   </si>
   <si>
@@ -201,13 +190,22 @@
     <t>Task $newTaskName was created or updated successfully.</t>
   </si>
   <si>
-    <t>Shadow copies were found on host server and could not be cleared!</t>
-  </si>
-  <si>
-    <t>Shadow copies were found on host server and successfully cleared.</t>
-  </si>
-  <si>
-    <t>No shadow copies were found on host server.</t>
+    <t>WINDOWS SERVER BACKUP EVENTS</t>
+  </si>
+  <si>
+    <t>No external backup drive was found! External backups are not scheduled.</t>
+  </si>
+  <si>
+    <t>The last Windows Server Backup was not successful! No revisions were changed on the external backup drive.</t>
+  </si>
+  <si>
+    <t>Windows Server Backup goes directly to the external backup drive! Consider installing an internal backup drive.</t>
+  </si>
+  <si>
+    <t>The last external backup revision could not be renamed! Check if another process has the folder or files open.</t>
+  </si>
+  <si>
+    <t>Failed to rotate external backup divisions! Check if any revisions are open in another process.</t>
   </si>
 </sst>
 </file>
@@ -292,31 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +301,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,25 +360,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,89 +376,128 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -481,6 +507,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD85B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,7 +532,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5467350" cy="4352925"/>
+    <xdr:ext cx="5467350" cy="5295900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -516,7 +547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19050" y="285750"/>
-          <a:ext cx="5467350" cy="4352925"/>
+          <a:ext cx="5467350" cy="5295900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,6 +622,70 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scheduled Tasks</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Use this for scheduled Monitors. These tasks can also perform routine  maintenance or troubleshooting tasks, like rotating backup revisions or deleting shadow copies. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Maintenance Tasks</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Use this for infrequent Maintenance tasks.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RMM</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -600,7 +695,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Scheduled Tasks</a:t>
+            <a:t>: This should be used for script and task deployment, or</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -612,24 +707,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>: Use this for scheduled Monitors.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Maintenance Tasks: Use this for scheduled Maintenance.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t> other one-time tasks.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MITKY</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -640,33 +733,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>RMM: This should be used for script and task deployment, or</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> other one-time tasks.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MITKY: This source is available</a:t>
+            <a:t>: This source is available</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -715,50 +782,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Use 1000 block for host or physical server monitoring events.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Use 3000 block for VM monitoring events.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Use 8000 block for Maintenance tasks.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>Use 1000 block for host or physical server monitoring events,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> except for Windows Server Backup.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -780,7 +817,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Group events sequentially:</a:t>
+            <a:t>Use 2000 block for Windows Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Backup events or events related to backup revisions created by WSB.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
@@ -798,12 +847,14 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Use XXX0 to indicate that the setting being checked is not configured.</a:t>
+            <a:t>Use 3000 block for VM monitoring events.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -814,57 +865,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Use XXX1 for critical events, or the worst-case result. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Use XXX2+ for other errors or warnings.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Use XXX9 for optimal results.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Use subsequent</a:t>
+            <a:t>Use 8000 block for Maintenance tasks</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -876,8 +877,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> numbers for additional information.</a:t>
-          </a:r>
+            <a:t> for any server type.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -889,6 +893,114 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Group events sequentially:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX0 to indicate that the setting being checked is not configured.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX1 for critical events, or the worst-case result. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX2+ for other errors or warnings.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use XXX9 for optimal results.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Use subsequent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> numbers for additional information.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -900,6 +1012,17 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -946,7 +1069,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>in this sheet.</a:t>
+            <a:t>in this sheet. Also confirm if a Datto monitor needs to be created or updated.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1971,7 +2094,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,32 +2103,32 @@
     <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="13"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="2"/>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" s="17"/>
+      <c r="J29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2022,7 +2145,720 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16" style="20" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>102</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>109</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1009</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>1060</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>1061</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1068</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DA6BE0-6D8B-47E8-89E5-07907AFE6D9E}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>2030</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>2031</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>2032</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>2033</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2034</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>2038</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>2039</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
+        <v>2050</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2051</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2054</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2055</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2056</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2057</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2058</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2059</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
+        <v>2070</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>2071</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
+        <v>2072</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>2073</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>2074</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>2075</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>2076</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>2079</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,71 +2871,165 @@
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:6" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>102</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>109</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="27"/>
+      <c r="E2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2110,617 +3040,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16" style="8" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
-        <v>1009</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
-        <v>1010</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1011</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1012</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>1019</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>1021</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1022</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1023</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1025</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1026</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1027</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1028</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>1039</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <v>1050</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
-        <v>1051</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>1052</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
-        <v>1053</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>1054</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>1059</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>1061</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1068</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
-        <v>1069</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
-  <dimension ref="A1:F27"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,178 +3059,34 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>8100</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>8101</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>8102</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>8103</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>8104</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>8109</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>8110</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8130</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8131</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>8139</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>48</v>
+      <c r="E2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="520" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B645D3-7041-4AE1-95E3-3007B171A466}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05766843-203D-486C-9AB0-D5BD3B7B9462}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -392,23 +392,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,9 +409,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,10 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,9 +426,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,9 +434,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,9 +462,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -498,6 +470,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2104,19 +2094,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2150,42 +2140,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16" style="20" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2239,7 +2228,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,39 +2236,39 @@
     <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2293,28 +2282,28 @@
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>1001</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -2326,40 +2315,43 @@
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>1060</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="F6" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1061</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="44" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2373,7 +2365,7 @@
       <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2381,7 +2373,7 @@
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="50"/>
+      <c r="D9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2405,39 +2397,39 @@
     <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2451,7 +2443,7 @@
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2465,7 +2457,7 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="42" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2479,7 +2471,7 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="42" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2493,68 +2485,68 @@
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>2030</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2031</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>2032</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>2033</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2568,21 +2560,21 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2038</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="42" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2596,25 +2588,25 @@
       <c r="C13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
         <v>2050</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2626,7 +2618,7 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2640,7 +2632,7 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2654,7 +2646,7 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="42" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2668,7 +2660,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="42" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2682,7 +2674,7 @@
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="42" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2696,7 +2688,7 @@
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="42" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2710,115 +2702,115 @@
       <c r="C21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
+    <row r="22" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
         <v>2070</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>2071</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>2072</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>2073</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>2074</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>2075</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>2076</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="44" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2832,7 +2824,7 @@
       <c r="C29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="12"/>
@@ -2842,7 +2834,7 @@
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2871,33 +2863,33 @@
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:6" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-    </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3059,33 +3051,33 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="36" t="s">
         <v>34</v>
       </c>
     </row>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05766843-203D-486C-9AB0-D5BD3B7B9462}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F9416C-C5C1-41EE-B0B5-B480378BB42B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>There are less than four backup revisions present. There are less than four revisions scheduled. The backup drive does not have space for four revisions.</t>
   </si>
   <si>
-    <t>There are less than four backup revisions present. There are less than four revisions scheduled. Removing extra files from the backup drive may free enough space for more revisions.</t>
-  </si>
-  <si>
     <t>External backups are scheduled, but the external backup drive was not found!</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>Backup revisions were successfully rotated.</t>
   </si>
   <si>
-    <t>Failed to rotate divisions! Check if any revisions are open in another process.</t>
-  </si>
-  <si>
     <t>There were less than four backup revisions. An additional revision was scheduled.</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>Failed to rotate external backup divisions! Check if any revisions are open in another process.</t>
+  </si>
+  <si>
+    <t>There are not enough backup revisions present. Removing other data from the backup drive may free enough space for more revisions.</t>
+  </si>
+  <si>
+    <t>Failed to delete revision: $revName! Check if it is open in another process.</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2150,7 +2150,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2172,10 +2172,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2183,16 +2183,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -2201,16 +2201,16 @@
         <v>109</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -2227,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2244,7 +2244,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2266,10 +2266,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2283,10 +2283,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2332,13 +2332,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2388,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DA6BE0-6D8B-47E8-89E5-07907AFE6D9E}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2427,10 +2427,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2502,10 +2502,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2647,7 +2647,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -2735,7 +2735,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2751,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2767,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2783,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -2865,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2887,10 +2887,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -3075,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F9416C-C5C1-41EE-B0B5-B480378BB42B}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340A8F43-24C3-4158-A65D-7C39986D1384}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
@@ -205,7 +205,7 @@
     <t>There are not enough backup revisions present. Removing other data from the backup drive may free enough space for more revisions.</t>
   </si>
   <si>
-    <t>Failed to delete revision: $revName! Check if it is open in another process.</t>
+    <t>Failed to delete previous revision: $revName! Check if it is open in another process.</t>
   </si>
 </sst>
 </file>
@@ -1782,6 +1782,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2389,7 +2393,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340A8F43-24C3-4158-A65D-7C39986D1384}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E55D8F96-00A3-4138-AD74-B4E973AD0EFE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -70,42 +70,15 @@
     <t xml:space="preserve">Hyper-V checkpoints were detected. Check if they are still needed or can be deleted. </t>
   </si>
   <si>
-    <t>Windows Server Backup is not configured for this server.</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
-    <t>The last Windows Server Backup operation reported an error.</t>
-  </si>
-  <si>
-    <t>Could not find a successful Windows Server Backup in the last 24 hours.</t>
-  </si>
-  <si>
-    <t>Windows Server Backup completed successfully within the last 24 hours.</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
     <t>The backup drive was not found!</t>
   </si>
   <si>
-    <t>There are at least four backup revisions present.</t>
-  </si>
-  <si>
-    <t>There are less than four backup revisions present. Schedule additional revisions.</t>
-  </si>
-  <si>
-    <t>There are less than four backup revisions present. Removing extra files from the backup drive may free enough space for more revisions.</t>
-  </si>
-  <si>
-    <t>There are less than four backup revisions present. The backup drive does not have space for four revisions.</t>
-  </si>
-  <si>
-    <t>There are less than four backup revisions present. There are less than four revisions scheduled. The backup drive does not have space for four revisions.</t>
-  </si>
-  <si>
     <t>External backups are scheduled, but the external backup drive was not found!</t>
   </si>
   <si>
@@ -133,9 +106,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Backup revisions could not be checked because of recent backup failures.</t>
-  </si>
-  <si>
     <t>No Virtual Machines were detected or the Get-VM cmdlet failed! Check if Hyper-V is enabled for this server or if VMs should be present.</t>
   </si>
   <si>
@@ -154,15 +124,9 @@
     <t>The last Windows Server Backup revision could not be renamed! Check that the last backup has completed or if another process has the folder or files open.</t>
   </si>
   <si>
-    <t>Not enough drive space for the scheduled number of revisions. The oldest revision was deleted.</t>
-  </si>
-  <si>
     <t>Backup revisions were successfully rotated.</t>
   </si>
   <si>
-    <t>There were less than four backup revisions. An additional revision was scheduled.</t>
-  </si>
-  <si>
     <t>(DO NOT USE) Deleting shadow copies critical event.</t>
   </si>
   <si>
@@ -205,7 +169,10 @@
     <t>There are not enough backup revisions present. Removing other data from the backup drive may free enough space for more revisions.</t>
   </si>
   <si>
-    <t>Failed to delete previous revision: $revName! Check if it is open in another process.</t>
+    <t>Failed to delete previous revision! Check if it is open in another process.</t>
+  </si>
+  <si>
+    <t>Windows Server Backup is not configured for this server or has not run.</t>
   </si>
 </sst>
 </file>
@@ -362,7 +329,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -489,6 +456,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2099,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2154,7 +2128,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2176,10 +2150,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2187,16 +2161,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -2205,16 +2179,16 @@
         <v>109</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -2248,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2270,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,10 +2261,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2333,16 +2307,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2353,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2370,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DA6BE0-6D8B-47E8-89E5-07907AFE6D9E}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2383,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -2431,414 +2405,257 @@
         <v>2</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>2030</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2031</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+    </row>
+    <row r="5" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2032</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>2033</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="44" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>2031</v>
-      </c>
-      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
+        <v>2035</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2036</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2039</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>2070</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>2032</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="D11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>2071</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>2072</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>2033</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>2073</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2034</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2038</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>2039</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="43" t="s">
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
-        <v>2050</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>15</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2051</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>2074</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2054</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>2075</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2055</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2076</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2056</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2079</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>19</v>
-      </c>
+      <c r="C18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2057</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2058</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>2059</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
-        <v>2070</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-    </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>2071</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
-        <v>2072</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>2073</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>2074</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>2075</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>2076</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>2079</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="41"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2869,7 +2686,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2891,10 +2708,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3057,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -3079,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E55D8F96-00A3-4138-AD74-B4E973AD0EFE}"/>
+  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB1961E6-0692-47D3-9EA6-8F5EF93727AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -173,6 +173,57 @@
   </si>
   <si>
     <t>Windows Server Backup is not configured for this server or has not run.</t>
+  </si>
+  <si>
+    <t>TASKNAME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>WSB-BackuptheBackups</t>
+  </si>
+  <si>
+    <t>noBackupDrive</t>
+  </si>
+  <si>
+    <t>noRevisionsFound</t>
+  </si>
+  <si>
+    <t>noBackupSuccess</t>
+  </si>
+  <si>
+    <t>renameLastBackupFailed</t>
+  </si>
+  <si>
+    <t>deleteRevisionFailed</t>
+  </si>
+  <si>
+    <t>noWindowsBackup</t>
+  </si>
+  <si>
+    <t>excessiveNonBackupData</t>
+  </si>
+  <si>
+    <t>notEnoughSpace</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>Could not create enough free space for the next backup! The next backup will most likely fail!</t>
+  </si>
+  <si>
+    <t>HOST-CheckandClearShadowCopies</t>
+  </si>
+  <si>
+    <t>HOST-CheckHyperVCheckpoints</t>
+  </si>
+  <si>
+    <t>taskDeploymentSuccess</t>
+  </si>
+  <si>
+    <t>taskDeploymentFailure</t>
   </si>
 </sst>
 </file>
@@ -329,88 +380,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -441,28 +421,67 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1756,10 +1775,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2071,32 +2086,32 @@
     <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="8"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="2"/>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" s="9"/>
+      <c r="J29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2110,91 +2125,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE32089-61F4-4820-AC63-23C684788486}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16" style="20" customWidth="1"/>
+    <col min="6" max="6" width="166.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="30">
         <v>102</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="10">
         <v>109</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="H4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2203,159 +2236,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="33.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="124.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8">
         <v>1000</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="11">
         <v>1001</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10">
         <v>1009</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="11">
         <v>1060</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="H6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="11">
         <v>1061</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10">
         <v>1068</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="41"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2364,302 +2421,425 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DA6BE0-6D8B-47E8-89E5-07907AFE6D9E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="23.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="142.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="12">
         <v>2030</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11">
         <v>2031</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="11">
         <v>2032</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11">
         <v>2033</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11">
         <v>2034</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="F7" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9">
         <v>2035</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="F8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9">
         <v>2036</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2037</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10">
         <v>2039</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="12">
         <v>2070</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="11">
         <v>2071</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="12">
         <v>2072</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="D14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="F14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="11">
         <v>2073</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="F15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="11">
         <v>2074</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="11">
         <v>2075</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="F17" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="11">
         <v>2076</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="F18" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="10">
         <v>2079</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="F19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2668,185 +2848,116 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="17"/>
+    <col min="3" max="3" width="17.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16" style="17" customWidth="1"/>
+    <col min="6" max="6" width="166.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="G2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
+    <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2855,56 +2966,66 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="166.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16" style="20" customWidth="1"/>
+    <col min="6" max="6" width="166.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:8" s="38" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="E2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="G2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="H2" s="39" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MITKY-CustomEventLogEventIDs.xlsx
+++ b/MITKY-CustomEventLogEventIDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitky0051-my.sharepoint.com/personal/jason_mitky_com/Documents/Documents/GitHub/RMMCustomMonitors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="13_ncr:1_{C8EBD7CB-E3BC-4093-8543-28367789C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB1961E6-0692-47D3-9EA6-8F5EF93727AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B3572E-F479-4E9D-9800-1AD6CA80E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{207F7709-C117-4E36-9CC8-F108324BDCB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>EVENT ID</t>
   </si>
@@ -173,57 +173,6 @@
   </si>
   <si>
     <t>Windows Server Backup is not configured for this server or has not run.</t>
-  </si>
-  <si>
-    <t>TASKNAME</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>WSB-BackuptheBackups</t>
-  </si>
-  <si>
-    <t>noBackupDrive</t>
-  </si>
-  <si>
-    <t>noRevisionsFound</t>
-  </si>
-  <si>
-    <t>noBackupSuccess</t>
-  </si>
-  <si>
-    <t>renameLastBackupFailed</t>
-  </si>
-  <si>
-    <t>deleteRevisionFailed</t>
-  </si>
-  <si>
-    <t>noWindowsBackup</t>
-  </si>
-  <si>
-    <t>excessiveNonBackupData</t>
-  </si>
-  <si>
-    <t>notEnoughSpace</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>Could not create enough free space for the next backup! The next backup will most likely fail!</t>
-  </si>
-  <si>
-    <t>HOST-CheckandClearShadowCopies</t>
-  </si>
-  <si>
-    <t>HOST-CheckHyperVCheckpoints</t>
-  </si>
-  <si>
-    <t>taskDeploymentSuccess</t>
-  </si>
-  <si>
-    <t>taskDeploymentFailure</t>
   </si>
 </sst>
 </file>
@@ -380,17 +329,88 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,66 +441,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2076,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0723D6-14DA-4B0D-93E5-A1F679A4298E}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -2086,32 +2060,32 @@
     <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="4"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="2"/>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J29" s="5"/>
+      <c r="J29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2125,109 +2099,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE32089-61F4-4820-AC63-23C684788486}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16" style="20" customWidth="1"/>
-    <col min="6" max="6" width="166.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="30">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>102</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>109</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="F4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2236,183 +2192,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70440B0E-7E87-4616-B447-BAF53EC0D299}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="124.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1000</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="11">
+    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>1001</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>1009</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>1060</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="11">
+    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1061</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="10">
+    <row r="8" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>1068</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2421,425 +2353,300 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DA6BE0-6D8B-47E8-89E5-07907AFE6D9E}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="142.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12">
+    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>2030</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>2031</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="11">
+    <row r="5" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>2032</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="11">
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>2033</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="11">
+    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>2034</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="9">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2035</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2036</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2037</v>
-      </c>
-      <c r="D10" s="11" t="s">
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2039</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>2070</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>2071</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>2072</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2039</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>2073</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>2074</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>2075</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2076</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2079</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="12">
-        <v>2070</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="11">
-        <v>2071</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="12">
-        <v>2072</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="11">
-        <v>2073</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="11">
-        <v>2074</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="11">
-        <v>2075</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="11">
-        <v>2076</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="10">
-        <v>2079</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="D18" s="43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2848,116 +2655,185 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1FCD9-0DC4-4C06-A258-930553BD7C29}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="17.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16" style="17" customWidth="1"/>
-    <col min="6" max="6" width="166.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="3:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2966,66 +2842,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07352D7-56BB-4359-8F7E-BF3E06B00285}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16" style="20" customWidth="1"/>
-    <col min="6" max="6" width="166.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="39" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
